--- a/04_Übung2/versuch2.xlsx
+++ b/04_Übung2/versuch2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsi\Documents\GitHub\DSV2Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsi\Documents\GitHub\DSV2Lab\04_Übung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>eingang</t>
-  </si>
-  <si>
-    <t>ausgang</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ermitteln anzahl dsp zyklen:</t>
   </si>
@@ -38,13 +32,19 @@
     <t>2.1 alles auf short umgestellt braucht nun:</t>
   </si>
   <si>
-    <t>jetzt das mit den shorts 'n' stuff</t>
-  </si>
-  <si>
     <t>assembler</t>
   </si>
   <si>
     <t>in assembler</t>
+  </si>
+  <si>
+    <t>sDAC1L</t>
+  </si>
+  <si>
+    <t>_sADC1L</t>
+  </si>
+  <si>
+    <t>shorts n stuff</t>
   </si>
 </sst>
 </file>
@@ -97,6 +97,1920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_sADC1L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C20B-4F29-B7AD-15F3E2ED0B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sDAC1L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C20B-4F29-B7AD-15F3E2ED0B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="322728928"/>
+        <c:axId val="322721712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="322728928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322721712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="322721712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322728928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_sADC1L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94AD-43CE-B8CD-190F642F5EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sDAC1L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94AD-43CE-B8CD-190F642F5EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="315697968"/>
+        <c:axId val="315698296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315697968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315698296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315698296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315697968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="3048000"/>
+          <a:ext cx="4562475" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1566862</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,13 +2290,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1">
         <v>1672</v>
@@ -396,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>764</v>
@@ -410,7 +2324,7 @@
         <v>5143</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -425,7 +2339,7 @@
         <v>10286</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>52</v>
@@ -445,7 +2359,7 @@
         <v>25716</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B21" si="0">B5+$B$3</f>
+        <f t="shared" ref="B6" si="0">B5+$B$3</f>
         <v>20572</v>
       </c>
     </row>
@@ -465,25 +2379,17 @@
         <v>25716</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.5</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="D11">
         <f>3277*2</f>
@@ -492,10 +2398,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,7 +2409,7 @@
         <v>0.5</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,7 +2417,7 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +2425,7 @@
         <v>0.5</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,10 +2433,27 @@
         <v>0.5</v>
       </c>
       <c r="B16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.5</v>
+      </c>
+      <c r="B18">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>